--- a/data/trans_orig/FINALC_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688724F5-FE02-4370-A590-94AD3A4E5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D7640C-8F81-4F47-A491-0EDB169C11FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49F2DADB-D9C0-40F3-956E-7265187A9D81}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA256492-6612-4F5F-8310-C92532D7C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
   <si>
     <t>Población según el nivel de compresión del cuestionario en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -92,538 +92,562 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>6,26%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
     <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1038,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F665E76-1957-4562-AE23-6315DBA2515C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0579BF86-7DE3-422A-B19F-469DC9F7F104}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1599,7 +1623,7 @@
         <v>1219</v>
       </c>
       <c r="N12" s="7">
-        <v>888883</v>
+        <v>888884</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>74</v>
@@ -1650,7 +1674,7 @@
         <v>1606</v>
       </c>
       <c r="N13" s="7">
-        <v>1141182</v>
+        <v>1141183</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -1712,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,13 +1751,13 @@
         <v>11460</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -1742,13 +1766,13 @@
         <v>20970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -1757,13 +1781,13 @@
         <v>32430</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1802,13 @@
         <v>157624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
@@ -1793,13 +1817,13 @@
         <v>191532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>489</v>
@@ -1808,13 +1832,13 @@
         <v>349156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1853,13 @@
         <v>870165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>1157</v>
@@ -1844,13 +1868,13 @@
         <v>845797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>1940</v>
@@ -1859,13 +1883,13 @@
         <v>1715962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,7 +1945,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1933,13 +1957,13 @@
         <v>160</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1954,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1963,13 +1987,13 @@
         <v>160</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +2008,13 @@
         <v>8670</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -1999,13 +2023,13 @@
         <v>16677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -2014,13 +2038,13 @@
         <v>25347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2059,13 @@
         <v>180560</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -2050,13 +2074,13 @@
         <v>193681</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M21" s="7">
         <v>443</v>
@@ -2065,13 +2089,13 @@
         <v>374240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2110,13 @@
         <v>539383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>748</v>
@@ -2101,13 +2125,13 @@
         <v>664013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>1242</v>
@@ -2116,13 +2140,13 @@
         <v>1203395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,7 +2202,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2190,13 +2214,13 @@
         <v>1667</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2205,13 +2229,13 @@
         <v>2627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -2223,10 +2247,10 @@
         <v>78</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2265,13 @@
         <v>11555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -2256,13 +2280,13 @@
         <v>26791</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -2274,10 +2298,10 @@
         <v>56</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2316,13 @@
         <v>139439</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>243</v>
@@ -2307,13 +2331,13 @@
         <v>162083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>403</v>
@@ -2322,13 +2346,13 @@
         <v>301521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2367,13 @@
         <v>812743</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H27" s="7">
         <v>1266</v>
@@ -2358,13 +2382,13 @@
         <v>958932</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
         <v>2096</v>
@@ -2373,13 +2397,13 @@
         <v>1771674</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2471,13 @@
         <v>1827</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2462,13 +2486,13 @@
         <v>3802</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2477,13 +2501,13 @@
         <v>5629</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2522,13 @@
         <v>43231</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H30" s="7">
         <v>136</v>
@@ -2513,13 +2537,13 @@
         <v>77115</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>188</v>
@@ -2528,13 +2552,13 @@
         <v>120346</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2573,13 @@
         <v>602866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>1125</v>
@@ -2564,13 +2588,13 @@
         <v>695967</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>1772</v>
@@ -2579,13 +2603,13 @@
         <v>1298833</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2624,13 @@
         <v>2736110</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>4094</v>
@@ -2615,13 +2639,13 @@
         <v>3030680</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>6767</v>
@@ -2630,13 +2654,13 @@
         <v>5766789</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2716,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALC_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D7640C-8F81-4F47-A491-0EDB169C11FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3991BF6A-B899-42B8-AEC6-25BDF77AC4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA256492-6612-4F5F-8310-C92532D7C2A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20DF5145-513B-455F-92B2-DB40429ED962}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mala</t>
@@ -176,7 +176,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -269,7 +269,7 @@
     <t>80,09%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -368,7 +368,7 @@
     <t>83,59%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0579BF86-7DE3-422A-B19F-469DC9F7F104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302112B-FC85-4124-93A1-229A79D06B60}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
